--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,33 @@
   </si>
   <si>
     <t>$heroStar</t>
+  </si>
+  <si>
+    <t>exportDatabaseTableName</t>
+  </si>
+  <si>
+    <t>heroId(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name(VARCHAR(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStar(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -139,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +233,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,21 +615,21 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -617,7 +653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -668,41 +704,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -710,19 +744,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <v>11</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -730,21 +764,41 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
       </c>
       <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
     </row>
@@ -757,13 +811,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\表格导出工具 4.5\XlsxToLua\bin\Debug\TestExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="110" windowWidth="28040" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,13 +147,45 @@
   </si>
   <si>
     <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前是否在游戏中开放（即可在英雄图鉴看到，可以被抽卡抽到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen(TINYINT(1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,24 +262,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -368,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,191 +680,216 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="15.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>11</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>11</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="G8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -821,18 +911,18 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -849,7 +939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\表格导出工具 4.5\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,55 +130,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>rare(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStar(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前是否在游戏中开放（即可在英雄图鉴看到，可以被抽卡抽到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen(TINYINT(1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addKeyToLuaTable</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name(VARCHAR(20))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rare(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultStar(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前是否在游戏中开放（即可在英雄图鉴看到，可以被抽卡抽到）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOpen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOpen(TINYINT(1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>attributes(VARCHAR(256))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attack":{"physical":20,"magic":100,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["circle",1,0,true],"cd":5}]},"defence":{"physical":10,"magic":60},"hp":200,"modelSize":[4,5,10.5],"petPhrase":"I will kill you!"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +256,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,11 +295,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +307,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,216 +723,235 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="15.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="111" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
         <v>11</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>37</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
         <v>11</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>41</v>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +966,7 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -913,22 +975,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/Hero.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具 6.4\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="28040" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,34 +31,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>英雄法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄牧师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄勇士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄职业（1：法师，2：战士，3：牧师，4：勇士）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$heroType</t>
+  </si>
+  <si>
     <t>英雄名称</t>
-  </si>
-  <si>
-    <t>英雄法师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄战士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄牧师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄勇士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄职业（1：法师，2：战士，3：牧师，4：勇士）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroName1</t>
+  </si>
+  <si>
+    <t>heroName2</t>
+  </si>
+  <si>
+    <t>heroName3</t>
+  </si>
+  <si>
+    <t>heroName4</t>
+  </si>
+  <si>
+    <t>稀有度（11-13）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$heroRare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty</t>
+  </si>
+  <si>
+    <t>英雄初始星数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,53 +117,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$heroType</t>
-  </si>
-  <si>
-    <t>英雄名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heroName1</t>
-  </si>
-  <si>
-    <t>heroName2</t>
-  </si>
-  <si>
-    <t>heroName3</t>
-  </si>
-  <si>
-    <t>heroName4</t>
-  </si>
-  <si>
-    <t>稀有度（11-13）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$heroRare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
-  </si>
-  <si>
-    <t>英雄初始星数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defaultStar</t>
+    <t>$heroStar</t>
+  </si>
+  <si>
+    <t>exportDatabaseTableName</t>
+  </si>
+  <si>
+    <t>heroId(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultStar(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前是否在游戏中开放（即可在英雄图鉴看到，可以被抽卡抽到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOpen(TINYINT(1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addKeyToLuaTable</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributes(VARCHAR(256))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"attack":{"physical":20,"magic":100,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["circle",1,0,true],"cd":5}]},"defence":{"physical":10,"magic":60},"hp":200,"modelSize":[4,5,10.5],"petPhrase":"I will kill you!"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄名称（仅客户端用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家等级达到多少直接赠送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -120,17 +214,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$heroStar</t>
-  </si>
-  <si>
-    <t>exportDatabaseTableName</t>
-  </si>
-  <si>
-    <t>heroId(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare(INT)</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,85 +226,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defaultStar(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前是否在游戏中开放（即可在英雄图鉴看到，可以被抽卡抽到）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOpen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isOpen(TINYINT(1))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addKeyToLuaTable</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name(VARCHAR(20))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attributes(VARCHAR(256))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attack":{"physical":140,"magic":0,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["sector",150,0,true],"cd":5}]},"defence":{"physical":40,"magic":0},"hp":150,"modelSize":[3.5,4,8],"petPhrase":"Death to all who oppose me!"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"attack":{"physical":20,"magic":100,"canCrit":true,"hitRate":0.9,"ult":[{"name":"CoupDeGrace","params":["circle",1,0,true],"cd":5}]},"defence":{"physical":10,"magic":60},"hp":200,"modelSize":[4,5,10.5],"petPhrase":"I will kill you!"}</t>
+    <t>presentLevel(INT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -723,148 +740,155 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.36328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="15.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="111" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="9" max="9" width="24.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
         <v>11</v>
@@ -876,21 +900,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>11</v>
@@ -902,18 +929,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>11</v>
@@ -925,18 +952,21 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>11</v>
@@ -948,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -973,27 +1003,27 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1040,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
